--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kath\Desktop\Programación\personales\send-emails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F9F9ED-FCF3-417E-BE06-1EC0E2FDE113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A04BF-8AB2-4722-9153-0C4B2C57F7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,42 +25,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Nestor</t>
-  </si>
-  <si>
-    <t>Kath</t>
-  </si>
-  <si>
-    <t>Boddy</t>
-  </si>
-  <si>
-    <t>PPK</t>
-  </si>
-  <si>
-    <t>Canela</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>hooman</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
     <t>kathlen.montalvo@unmsm.edu.pe</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Value chain position</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Crow Spotter</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Christianchurch</t>
+  </si>
+  <si>
+    <t>Cafeteria</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>PERHUSA</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Izquierdo</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacted </t>
+  </si>
+  <si>
+    <t>Date contacted</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>nestor.sedano@unmsm.edu.pe</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Luis</t>
   </si>
 </sst>
 </file>
@@ -108,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,22 +170,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -142,6 +254,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FF323D3-1603-48BC-8480-088B64EF0E4E}" name="Tabla2" displayName="Tabla2" ref="A1:M5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:M5" xr:uid="{75AF8360-F317-48AE-84F2-5F70A120EF3E}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6E025F55-9D25-46A4-AC41-4D6FB67C1C77}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{6A4D7A98-AEFC-4487-AF0A-88D49734A378}" name="Company"/>
+    <tableColumn id="3" xr3:uid="{7CE9D7B4-A5DE-4C06-8F58-70BF9BD3FACE}" name="Country"/>
+    <tableColumn id="4" xr3:uid="{8BD06490-DC2B-4D7D-B28D-124CF1AD148E}" name="Language"/>
+    <tableColumn id="5" xr3:uid="{4A3C77B7-81CD-4C89-8E3C-A672C85D5E37}" name="City"/>
+    <tableColumn id="6" xr3:uid="{DCA17746-970F-4C1D-BCF3-79974BC2A874}" name="Value chain position"/>
+    <tableColumn id="7" xr3:uid="{C9C2F8DF-5C9A-494E-9D2A-19636E6D4499}" name="Last name"/>
+    <tableColumn id="8" xr3:uid="{CA35E189-8664-468E-BE6E-333CEFB13631}" name="First name"/>
+    <tableColumn id="9" xr3:uid="{87BD5C6F-1D7D-45DB-A540-70FB4DBC9E62}" name="Email"/>
+    <tableColumn id="10" xr3:uid="{6CF1306E-1531-4524-92D0-F5DCA0615F08}" name="Phone number"/>
+    <tableColumn id="11" xr3:uid="{455E30F3-6C45-4F2B-B93E-DCEF52E10396}" name="Social media "/>
+    <tableColumn id="12" xr3:uid="{E0971DDF-11CB-43EF-8A46-07A88B54B9ED}" name="Contacted "/>
+    <tableColumn id="13" xr3:uid="{85DD879B-8161-44F7-99BF-89CECB998A3A}" name="Date contacted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,90 +544,186 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="L5">
         <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4F07277F-B93F-4711-BC64-9FE5789A1FC7}"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="kathlen.montalvo@unmsm.edu.pe" xr:uid="{2C6292FC-0331-40E2-8B20-E61B51278550}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kath\Desktop\Programación\personales\send-emails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A04BF-8AB2-4722-9153-0C4B2C57F7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A5AC9D-3A1F-4071-AD8C-26A52DBDC2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Email</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Cafeteria</t>
   </si>
   <si>
-    <t>Hunter</t>
-  </si>
-  <si>
     <t>PERHUSA</t>
   </si>
   <si>
@@ -105,16 +102,7 @@
     <t>Date contacted</t>
   </si>
   <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>nestor.sedano@unmsm.edu.pe</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Luis</t>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -203,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,12 +199,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -227,20 +230,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -257,7 +246,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FF323D3-1603-48BC-8480-088B64EF0E4E}" name="Tabla2" displayName="Tabla2" ref="A1:M5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3FF323D3-1603-48BC-8480-088B64EF0E4E}" name="Tabla2" displayName="Tabla2" ref="A1:M5" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:M5" xr:uid="{75AF8360-F317-48AE-84F2-5F70A120EF3E}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{6E025F55-9D25-46A4-AC41-4D6FB67C1C77}" name="Code"/>
@@ -541,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,22 +574,22 @@
         <v>8</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -620,55 +609,52 @@
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -719,6 +705,9 @@
       <c r="F8" s="2"/>
       <c r="P8" s="2"/>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
